--- a/result_with_total.xlsx
+++ b/result_with_total.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P702"/>
+  <dimension ref="A1:Q702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>Year</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -574,6 +579,7 @@
       <c r="P2" t="n">
         <v>2014</v>
       </c>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -630,6 +636,7 @@
       <c r="P3" t="n">
         <v>2014</v>
       </c>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -686,6 +693,7 @@
       <c r="P4" t="n">
         <v>2014</v>
       </c>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -742,6 +750,7 @@
       <c r="P5" t="n">
         <v>2014</v>
       </c>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -798,6 +807,7 @@
       <c r="P6" t="n">
         <v>2014</v>
       </c>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -854,6 +864,7 @@
       <c r="P7" t="n">
         <v>2014</v>
       </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -910,6 +921,7 @@
       <c r="P8" t="n">
         <v>2014</v>
       </c>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -966,6 +978,7 @@
       <c r="P9" t="n">
         <v>2014</v>
       </c>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1022,6 +1035,7 @@
       <c r="P10" t="n">
         <v>2014</v>
       </c>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1078,6 +1092,7 @@
       <c r="P11" t="n">
         <v>2014</v>
       </c>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1134,6 +1149,7 @@
       <c r="P12" t="n">
         <v>2014</v>
       </c>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1190,6 +1206,7 @@
       <c r="P13" t="n">
         <v>2014</v>
       </c>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1246,6 +1263,7 @@
       <c r="P14" t="n">
         <v>2014</v>
       </c>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1302,6 +1320,7 @@
       <c r="P15" t="n">
         <v>2014</v>
       </c>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1358,6 +1377,7 @@
       <c r="P16" t="n">
         <v>2013</v>
       </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1414,6 +1434,7 @@
       <c r="P17" t="n">
         <v>2014</v>
       </c>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1470,6 +1491,7 @@
       <c r="P18" t="n">
         <v>2014</v>
       </c>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1526,6 +1548,7 @@
       <c r="P19" t="n">
         <v>2014</v>
       </c>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1582,6 +1605,7 @@
       <c r="P20" t="n">
         <v>2014</v>
       </c>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1638,6 +1662,7 @@
       <c r="P21" t="n">
         <v>2014</v>
       </c>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1694,6 +1719,7 @@
       <c r="P22" t="n">
         <v>2014</v>
       </c>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1750,6 +1776,7 @@
       <c r="P23" t="n">
         <v>2014</v>
       </c>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1806,6 +1833,7 @@
       <c r="P24" t="n">
         <v>2013</v>
       </c>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1862,6 +1890,7 @@
       <c r="P25" t="n">
         <v>2013</v>
       </c>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1918,6 +1947,7 @@
       <c r="P26" t="n">
         <v>2014</v>
       </c>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1974,6 +2004,7 @@
       <c r="P27" t="n">
         <v>2014</v>
       </c>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2030,6 +2061,7 @@
       <c r="P28" t="n">
         <v>2013</v>
       </c>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2086,6 +2118,7 @@
       <c r="P29" t="n">
         <v>2013</v>
       </c>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2142,6 +2175,7 @@
       <c r="P30" t="n">
         <v>2013</v>
       </c>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2198,6 +2232,7 @@
       <c r="P31" t="n">
         <v>2014</v>
       </c>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2254,6 +2289,7 @@
       <c r="P32" t="n">
         <v>2014</v>
       </c>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2310,6 +2346,7 @@
       <c r="P33" t="n">
         <v>2014</v>
       </c>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2366,6 +2403,7 @@
       <c r="P34" t="n">
         <v>2014</v>
       </c>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2422,6 +2460,7 @@
       <c r="P35" t="n">
         <v>2014</v>
       </c>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2478,6 +2517,7 @@
       <c r="P36" t="n">
         <v>2014</v>
       </c>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2534,6 +2574,7 @@
       <c r="P37" t="n">
         <v>2014</v>
       </c>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2590,6 +2631,7 @@
       <c r="P38" t="n">
         <v>2014</v>
       </c>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2646,6 +2688,7 @@
       <c r="P39" t="n">
         <v>2013</v>
       </c>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2702,6 +2745,7 @@
       <c r="P40" t="n">
         <v>2014</v>
       </c>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2758,6 +2802,7 @@
       <c r="P41" t="n">
         <v>2014</v>
       </c>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2814,6 +2859,7 @@
       <c r="P42" t="n">
         <v>2014</v>
       </c>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2870,6 +2916,7 @@
       <c r="P43" t="n">
         <v>2014</v>
       </c>
+      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2926,6 +2973,7 @@
       <c r="P44" t="n">
         <v>2013</v>
       </c>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2982,6 +3030,7 @@
       <c r="P45" t="n">
         <v>2014</v>
       </c>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3038,6 +3087,7 @@
       <c r="P46" t="n">
         <v>2014</v>
       </c>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3094,6 +3144,7 @@
       <c r="P47" t="n">
         <v>2014</v>
       </c>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3150,6 +3201,7 @@
       <c r="P48" t="n">
         <v>2014</v>
       </c>
+      <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3206,6 +3258,7 @@
       <c r="P49" t="n">
         <v>2014</v>
       </c>
+      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3262,6 +3315,7 @@
       <c r="P50" t="n">
         <v>2014</v>
       </c>
+      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3318,6 +3372,7 @@
       <c r="P51" t="n">
         <v>2014</v>
       </c>
+      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3374,6 +3429,7 @@
       <c r="P52" t="n">
         <v>2014</v>
       </c>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3430,6 +3486,7 @@
       <c r="P53" t="n">
         <v>2014</v>
       </c>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3486,6 +3543,7 @@
       <c r="P54" t="n">
         <v>2014</v>
       </c>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3546,6 +3604,7 @@
       <c r="P55" t="n">
         <v>2014</v>
       </c>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3606,6 +3665,7 @@
       <c r="P56" t="n">
         <v>2014</v>
       </c>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3666,6 +3726,7 @@
       <c r="P57" t="n">
         <v>2014</v>
       </c>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3726,6 +3787,7 @@
       <c r="P58" t="n">
         <v>2014</v>
       </c>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3786,6 +3848,7 @@
       <c r="P59" t="n">
         <v>2014</v>
       </c>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3846,6 +3909,7 @@
       <c r="P60" t="n">
         <v>2014</v>
       </c>
+      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3906,6 +3970,7 @@
       <c r="P61" t="n">
         <v>2014</v>
       </c>
+      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3966,6 +4031,7 @@
       <c r="P62" t="n">
         <v>2014</v>
       </c>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4026,6 +4092,7 @@
       <c r="P63" t="n">
         <v>2014</v>
       </c>
+      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4086,6 +4153,7 @@
       <c r="P64" t="n">
         <v>2013</v>
       </c>
+      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4146,6 +4214,7 @@
       <c r="P65" t="n">
         <v>2014</v>
       </c>
+      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4206,6 +4275,7 @@
       <c r="P66" t="n">
         <v>2013</v>
       </c>
+      <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4266,6 +4336,7 @@
       <c r="P67" t="n">
         <v>2013</v>
       </c>
+      <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4326,6 +4397,7 @@
       <c r="P68" t="n">
         <v>2014</v>
       </c>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4386,6 +4458,7 @@
       <c r="P69" t="n">
         <v>2014</v>
       </c>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4446,6 +4519,7 @@
       <c r="P70" t="n">
         <v>2014</v>
       </c>
+      <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4506,6 +4580,7 @@
       <c r="P71" t="n">
         <v>2014</v>
       </c>
+      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4566,6 +4641,7 @@
       <c r="P72" t="n">
         <v>2014</v>
       </c>
+      <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4626,6 +4702,7 @@
       <c r="P73" t="n">
         <v>2014</v>
       </c>
+      <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4686,6 +4763,7 @@
       <c r="P74" t="n">
         <v>2013</v>
       </c>
+      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4746,6 +4824,7 @@
       <c r="P75" t="n">
         <v>2013</v>
       </c>
+      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4806,6 +4885,7 @@
       <c r="P76" t="n">
         <v>2014</v>
       </c>
+      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4866,6 +4946,7 @@
       <c r="P77" t="n">
         <v>2014</v>
       </c>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4926,6 +5007,7 @@
       <c r="P78" t="n">
         <v>2014</v>
       </c>
+      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4986,6 +5068,7 @@
       <c r="P79" t="n">
         <v>2014</v>
       </c>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5046,6 +5129,7 @@
       <c r="P80" t="n">
         <v>2014</v>
       </c>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5106,6 +5190,7 @@
       <c r="P81" t="n">
         <v>2014</v>
       </c>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5166,6 +5251,7 @@
       <c r="P82" t="n">
         <v>2013</v>
       </c>
+      <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5226,6 +5312,7 @@
       <c r="P83" t="n">
         <v>2014</v>
       </c>
+      <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5286,6 +5373,7 @@
       <c r="P84" t="n">
         <v>2014</v>
       </c>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5346,6 +5434,7 @@
       <c r="P85" t="n">
         <v>2014</v>
       </c>
+      <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5406,6 +5495,7 @@
       <c r="P86" t="n">
         <v>2014</v>
       </c>
+      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5466,6 +5556,7 @@
       <c r="P87" t="n">
         <v>2014</v>
       </c>
+      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5526,6 +5617,7 @@
       <c r="P88" t="n">
         <v>2013</v>
       </c>
+      <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5586,6 +5678,7 @@
       <c r="P89" t="n">
         <v>2013</v>
       </c>
+      <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5646,6 +5739,7 @@
       <c r="P90" t="n">
         <v>2014</v>
       </c>
+      <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5706,6 +5800,7 @@
       <c r="P91" t="n">
         <v>2014</v>
       </c>
+      <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5766,6 +5861,7 @@
       <c r="P92" t="n">
         <v>2014</v>
       </c>
+      <c r="Q92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5826,6 +5922,7 @@
       <c r="P93" t="n">
         <v>2014</v>
       </c>
+      <c r="Q93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5886,6 +5983,7 @@
       <c r="P94" t="n">
         <v>2014</v>
       </c>
+      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5946,6 +6044,7 @@
       <c r="P95" t="n">
         <v>2013</v>
       </c>
+      <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6006,6 +6105,7 @@
       <c r="P96" t="n">
         <v>2014</v>
       </c>
+      <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6066,6 +6166,7 @@
       <c r="P97" t="n">
         <v>2014</v>
       </c>
+      <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6126,6 +6227,7 @@
       <c r="P98" t="n">
         <v>2013</v>
       </c>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6186,6 +6288,7 @@
       <c r="P99" t="n">
         <v>2013</v>
       </c>
+      <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6246,6 +6349,7 @@
       <c r="P100" t="n">
         <v>2014</v>
       </c>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6306,6 +6410,7 @@
       <c r="P101" t="n">
         <v>2014</v>
       </c>
+      <c r="Q101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6366,6 +6471,7 @@
       <c r="P102" t="n">
         <v>2013</v>
       </c>
+      <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6426,6 +6532,7 @@
       <c r="P103" t="n">
         <v>2013</v>
       </c>
+      <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6486,6 +6593,7 @@
       <c r="P104" t="n">
         <v>2014</v>
       </c>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6546,6 +6654,7 @@
       <c r="P105" t="n">
         <v>2014</v>
       </c>
+      <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6606,6 +6715,7 @@
       <c r="P106" t="n">
         <v>2014</v>
       </c>
+      <c r="Q106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6666,6 +6776,7 @@
       <c r="P107" t="n">
         <v>2014</v>
       </c>
+      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6726,6 +6837,7 @@
       <c r="P108" t="n">
         <v>2013</v>
       </c>
+      <c r="Q108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6786,6 +6898,7 @@
       <c r="P109" t="n">
         <v>2014</v>
       </c>
+      <c r="Q109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6846,6 +6959,7 @@
       <c r="P110" t="n">
         <v>2014</v>
       </c>
+      <c r="Q110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6906,6 +7020,7 @@
       <c r="P111" t="n">
         <v>2014</v>
       </c>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6966,6 +7081,7 @@
       <c r="P112" t="n">
         <v>2014</v>
       </c>
+      <c r="Q112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7026,6 +7142,7 @@
       <c r="P113" t="n">
         <v>2014</v>
       </c>
+      <c r="Q113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7086,6 +7203,7 @@
       <c r="P114" t="n">
         <v>2014</v>
       </c>
+      <c r="Q114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7146,6 +7264,7 @@
       <c r="P115" t="n">
         <v>2013</v>
       </c>
+      <c r="Q115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7206,6 +7325,7 @@
       <c r="P116" t="n">
         <v>2013</v>
       </c>
+      <c r="Q116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7266,6 +7386,7 @@
       <c r="P117" t="n">
         <v>2013</v>
       </c>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7326,6 +7447,7 @@
       <c r="P118" t="n">
         <v>2014</v>
       </c>
+      <c r="Q118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7386,6 +7508,7 @@
       <c r="P119" t="n">
         <v>2014</v>
       </c>
+      <c r="Q119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7446,6 +7569,7 @@
       <c r="P120" t="n">
         <v>2014</v>
       </c>
+      <c r="Q120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7506,6 +7630,7 @@
       <c r="P121" t="n">
         <v>2013</v>
       </c>
+      <c r="Q121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7566,6 +7691,7 @@
       <c r="P122" t="n">
         <v>2013</v>
       </c>
+      <c r="Q122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7626,6 +7752,7 @@
       <c r="P123" t="n">
         <v>2014</v>
       </c>
+      <c r="Q123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7686,6 +7813,7 @@
       <c r="P124" t="n">
         <v>2014</v>
       </c>
+      <c r="Q124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7746,6 +7874,7 @@
       <c r="P125" t="n">
         <v>2014</v>
       </c>
+      <c r="Q125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7806,6 +7935,7 @@
       <c r="P126" t="n">
         <v>2013</v>
       </c>
+      <c r="Q126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7866,6 +7996,7 @@
       <c r="P127" t="n">
         <v>2014</v>
       </c>
+      <c r="Q127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7926,6 +8057,7 @@
       <c r="P128" t="n">
         <v>2013</v>
       </c>
+      <c r="Q128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7986,6 +8118,7 @@
       <c r="P129" t="n">
         <v>2013</v>
       </c>
+      <c r="Q129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8046,6 +8179,7 @@
       <c r="P130" t="n">
         <v>2014</v>
       </c>
+      <c r="Q130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8106,6 +8240,7 @@
       <c r="P131" t="n">
         <v>2013</v>
       </c>
+      <c r="Q131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8166,6 +8301,7 @@
       <c r="P132" t="n">
         <v>2014</v>
       </c>
+      <c r="Q132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8226,6 +8362,7 @@
       <c r="P133" t="n">
         <v>2014</v>
       </c>
+      <c r="Q133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8286,6 +8423,7 @@
       <c r="P134" t="n">
         <v>2013</v>
       </c>
+      <c r="Q134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8346,6 +8484,7 @@
       <c r="P135" t="n">
         <v>2014</v>
       </c>
+      <c r="Q135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8406,6 +8545,7 @@
       <c r="P136" t="n">
         <v>2014</v>
       </c>
+      <c r="Q136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8466,6 +8606,7 @@
       <c r="P137" t="n">
         <v>2013</v>
       </c>
+      <c r="Q137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8526,6 +8667,7 @@
       <c r="P138" t="n">
         <v>2013</v>
       </c>
+      <c r="Q138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8586,6 +8728,7 @@
       <c r="P139" t="n">
         <v>2014</v>
       </c>
+      <c r="Q139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8646,6 +8789,7 @@
       <c r="P140" t="n">
         <v>2014</v>
       </c>
+      <c r="Q140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8706,6 +8850,7 @@
       <c r="P141" t="n">
         <v>2014</v>
       </c>
+      <c r="Q141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8766,6 +8911,7 @@
       <c r="P142" t="n">
         <v>2013</v>
       </c>
+      <c r="Q142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8826,6 +8972,7 @@
       <c r="P143" t="n">
         <v>2014</v>
       </c>
+      <c r="Q143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8886,6 +9033,7 @@
       <c r="P144" t="n">
         <v>2014</v>
       </c>
+      <c r="Q144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8946,6 +9094,7 @@
       <c r="P145" t="n">
         <v>2014</v>
       </c>
+      <c r="Q145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9006,6 +9155,7 @@
       <c r="P146" t="n">
         <v>2014</v>
       </c>
+      <c r="Q146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9066,6 +9216,7 @@
       <c r="P147" t="n">
         <v>2014</v>
       </c>
+      <c r="Q147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9126,6 +9277,7 @@
       <c r="P148" t="n">
         <v>2014</v>
       </c>
+      <c r="Q148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9186,6 +9338,7 @@
       <c r="P149" t="n">
         <v>2014</v>
       </c>
+      <c r="Q149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9246,6 +9399,7 @@
       <c r="P150" t="n">
         <v>2013</v>
       </c>
+      <c r="Q150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9306,6 +9460,7 @@
       <c r="P151" t="n">
         <v>2014</v>
       </c>
+      <c r="Q151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9366,6 +9521,7 @@
       <c r="P152" t="n">
         <v>2014</v>
       </c>
+      <c r="Q152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9426,6 +9582,7 @@
       <c r="P153" t="n">
         <v>2014</v>
       </c>
+      <c r="Q153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9486,6 +9643,7 @@
       <c r="P154" t="n">
         <v>2013</v>
       </c>
+      <c r="Q154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9546,6 +9704,7 @@
       <c r="P155" t="n">
         <v>2014</v>
       </c>
+      <c r="Q155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9606,6 +9765,7 @@
       <c r="P156" t="n">
         <v>2014</v>
       </c>
+      <c r="Q156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9666,6 +9826,7 @@
       <c r="P157" t="n">
         <v>2014</v>
       </c>
+      <c r="Q157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9726,6 +9887,7 @@
       <c r="P158" t="n">
         <v>2014</v>
       </c>
+      <c r="Q158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9786,6 +9948,7 @@
       <c r="P159" t="n">
         <v>2014</v>
       </c>
+      <c r="Q159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9846,6 +10009,7 @@
       <c r="P160" t="n">
         <v>2014</v>
       </c>
+      <c r="Q160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9906,6 +10070,7 @@
       <c r="P161" t="n">
         <v>2014</v>
       </c>
+      <c r="Q161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9966,6 +10131,7 @@
       <c r="P162" t="n">
         <v>2014</v>
       </c>
+      <c r="Q162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -10026,6 +10192,7 @@
       <c r="P163" t="n">
         <v>2014</v>
       </c>
+      <c r="Q163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10086,6 +10253,7 @@
       <c r="P164" t="n">
         <v>2013</v>
       </c>
+      <c r="Q164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -10146,6 +10314,7 @@
       <c r="P165" t="n">
         <v>2014</v>
       </c>
+      <c r="Q165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -10206,6 +10375,7 @@
       <c r="P166" t="n">
         <v>2014</v>
       </c>
+      <c r="Q166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10266,6 +10436,7 @@
       <c r="P167" t="n">
         <v>2014</v>
       </c>
+      <c r="Q167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10326,6 +10497,7 @@
       <c r="P168" t="n">
         <v>2014</v>
       </c>
+      <c r="Q168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10386,6 +10558,7 @@
       <c r="P169" t="n">
         <v>2014</v>
       </c>
+      <c r="Q169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10446,6 +10619,7 @@
       <c r="P170" t="n">
         <v>2014</v>
       </c>
+      <c r="Q170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10506,6 +10680,7 @@
       <c r="P171" t="n">
         <v>2014</v>
       </c>
+      <c r="Q171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10566,6 +10741,7 @@
       <c r="P172" t="n">
         <v>2014</v>
       </c>
+      <c r="Q172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10626,6 +10802,7 @@
       <c r="P173" t="n">
         <v>2013</v>
       </c>
+      <c r="Q173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10686,6 +10863,7 @@
       <c r="P174" t="n">
         <v>2014</v>
       </c>
+      <c r="Q174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10746,6 +10924,7 @@
       <c r="P175" t="n">
         <v>2013</v>
       </c>
+      <c r="Q175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10806,6 +10985,7 @@
       <c r="P176" t="n">
         <v>2014</v>
       </c>
+      <c r="Q176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10866,6 +11046,7 @@
       <c r="P177" t="n">
         <v>2014</v>
       </c>
+      <c r="Q177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10926,6 +11107,7 @@
       <c r="P178" t="n">
         <v>2014</v>
       </c>
+      <c r="Q178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10986,6 +11168,7 @@
       <c r="P179" t="n">
         <v>2014</v>
       </c>
+      <c r="Q179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -11046,6 +11229,7 @@
       <c r="P180" t="n">
         <v>2013</v>
       </c>
+      <c r="Q180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -11106,6 +11290,7 @@
       <c r="P181" t="n">
         <v>2013</v>
       </c>
+      <c r="Q181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11166,6 +11351,7 @@
       <c r="P182" t="n">
         <v>2013</v>
       </c>
+      <c r="Q182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -11226,6 +11412,7 @@
       <c r="P183" t="n">
         <v>2014</v>
       </c>
+      <c r="Q183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11286,6 +11473,7 @@
       <c r="P184" t="n">
         <v>2014</v>
       </c>
+      <c r="Q184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -11346,6 +11534,7 @@
       <c r="P185" t="n">
         <v>2014</v>
       </c>
+      <c r="Q185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -11406,6 +11595,7 @@
       <c r="P186" t="n">
         <v>2014</v>
       </c>
+      <c r="Q186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -11466,6 +11656,7 @@
       <c r="P187" t="n">
         <v>2013</v>
       </c>
+      <c r="Q187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -11526,6 +11717,7 @@
       <c r="P188" t="n">
         <v>2014</v>
       </c>
+      <c r="Q188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11586,6 +11778,7 @@
       <c r="P189" t="n">
         <v>2014</v>
       </c>
+      <c r="Q189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -11646,6 +11839,7 @@
       <c r="P190" t="n">
         <v>2014</v>
       </c>
+      <c r="Q190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -11706,6 +11900,7 @@
       <c r="P191" t="n">
         <v>2014</v>
       </c>
+      <c r="Q191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11766,6 +11961,7 @@
       <c r="P192" t="n">
         <v>2014</v>
       </c>
+      <c r="Q192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11826,6 +12022,7 @@
       <c r="P193" t="n">
         <v>2014</v>
       </c>
+      <c r="Q193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -11886,6 +12083,7 @@
       <c r="P194" t="n">
         <v>2014</v>
       </c>
+      <c r="Q194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -11946,6 +12144,7 @@
       <c r="P195" t="n">
         <v>2014</v>
       </c>
+      <c r="Q195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -12006,6 +12205,7 @@
       <c r="P196" t="n">
         <v>2014</v>
       </c>
+      <c r="Q196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -12066,6 +12266,7 @@
       <c r="P197" t="n">
         <v>2014</v>
       </c>
+      <c r="Q197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -12126,6 +12327,7 @@
       <c r="P198" t="n">
         <v>2014</v>
       </c>
+      <c r="Q198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -12186,6 +12388,7 @@
       <c r="P199" t="n">
         <v>2013</v>
       </c>
+      <c r="Q199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12246,6 +12449,7 @@
       <c r="P200" t="n">
         <v>2013</v>
       </c>
+      <c r="Q200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12306,6 +12510,7 @@
       <c r="P201" t="n">
         <v>2014</v>
       </c>
+      <c r="Q201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -12366,6 +12571,7 @@
       <c r="P202" t="n">
         <v>2014</v>
       </c>
+      <c r="Q202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -12426,6 +12632,7 @@
       <c r="P203" t="n">
         <v>2014</v>
       </c>
+      <c r="Q203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -12486,6 +12693,7 @@
       <c r="P204" t="n">
         <v>2013</v>
       </c>
+      <c r="Q204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -12546,6 +12754,7 @@
       <c r="P205" t="n">
         <v>2014</v>
       </c>
+      <c r="Q205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -12606,6 +12815,7 @@
       <c r="P206" t="n">
         <v>2014</v>
       </c>
+      <c r="Q206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -12666,6 +12876,7 @@
       <c r="P207" t="n">
         <v>2013</v>
       </c>
+      <c r="Q207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -12726,6 +12937,7 @@
       <c r="P208" t="n">
         <v>2014</v>
       </c>
+      <c r="Q208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12786,6 +12998,7 @@
       <c r="P209" t="n">
         <v>2013</v>
       </c>
+      <c r="Q209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -12846,6 +13059,7 @@
       <c r="P210" t="n">
         <v>2014</v>
       </c>
+      <c r="Q210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -12906,6 +13120,7 @@
       <c r="P211" t="n">
         <v>2014</v>
       </c>
+      <c r="Q211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -12966,6 +13181,7 @@
       <c r="P212" t="n">
         <v>2014</v>
       </c>
+      <c r="Q212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -13026,6 +13242,7 @@
       <c r="P213" t="n">
         <v>2013</v>
       </c>
+      <c r="Q213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -13086,6 +13303,7 @@
       <c r="P214" t="n">
         <v>2013</v>
       </c>
+      <c r="Q214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -13146,6 +13364,7 @@
       <c r="P215" t="n">
         <v>2013</v>
       </c>
+      <c r="Q215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -13206,6 +13425,7 @@
       <c r="P216" t="n">
         <v>2014</v>
       </c>
+      <c r="Q216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -13266,6 +13486,7 @@
       <c r="P217" t="n">
         <v>2013</v>
       </c>
+      <c r="Q217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -13326,6 +13547,7 @@
       <c r="P218" t="n">
         <v>2014</v>
       </c>
+      <c r="Q218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -13386,6 +13608,7 @@
       <c r="P219" t="n">
         <v>2014</v>
       </c>
+      <c r="Q219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -13446,6 +13669,7 @@
       <c r="P220" t="n">
         <v>2014</v>
       </c>
+      <c r="Q220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -13506,6 +13730,7 @@
       <c r="P221" t="n">
         <v>2014</v>
       </c>
+      <c r="Q221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -13566,6 +13791,7 @@
       <c r="P222" t="n">
         <v>2014</v>
       </c>
+      <c r="Q222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -13626,6 +13852,7 @@
       <c r="P223" t="n">
         <v>2014</v>
       </c>
+      <c r="Q223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -13686,6 +13913,7 @@
       <c r="P224" t="n">
         <v>2013</v>
       </c>
+      <c r="Q224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -13746,6 +13974,7 @@
       <c r="P225" t="n">
         <v>2014</v>
       </c>
+      <c r="Q225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -13806,6 +14035,7 @@
       <c r="P226" t="n">
         <v>2014</v>
       </c>
+      <c r="Q226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -13866,6 +14096,7 @@
       <c r="P227" t="n">
         <v>2014</v>
       </c>
+      <c r="Q227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -13926,6 +14157,7 @@
       <c r="P228" t="n">
         <v>2014</v>
       </c>
+      <c r="Q228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -13986,6 +14218,7 @@
       <c r="P229" t="n">
         <v>2013</v>
       </c>
+      <c r="Q229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -14046,6 +14279,7 @@
       <c r="P230" t="n">
         <v>2014</v>
       </c>
+      <c r="Q230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -14106,6 +14340,7 @@
       <c r="P231" t="n">
         <v>2014</v>
       </c>
+      <c r="Q231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -14166,6 +14401,7 @@
       <c r="P232" t="n">
         <v>2014</v>
       </c>
+      <c r="Q232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -14226,6 +14462,7 @@
       <c r="P233" t="n">
         <v>2014</v>
       </c>
+      <c r="Q233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -14286,6 +14523,7 @@
       <c r="P234" t="n">
         <v>2014</v>
       </c>
+      <c r="Q234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -14346,6 +14584,7 @@
       <c r="P235" t="n">
         <v>2013</v>
       </c>
+      <c r="Q235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -14406,6 +14645,7 @@
       <c r="P236" t="n">
         <v>2014</v>
       </c>
+      <c r="Q236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -14466,6 +14706,7 @@
       <c r="P237" t="n">
         <v>2013</v>
       </c>
+      <c r="Q237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -14526,6 +14767,7 @@
       <c r="P238" t="n">
         <v>2014</v>
       </c>
+      <c r="Q238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -14586,6 +14828,7 @@
       <c r="P239" t="n">
         <v>2014</v>
       </c>
+      <c r="Q239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -14646,6 +14889,7 @@
       <c r="P240" t="n">
         <v>2014</v>
       </c>
+      <c r="Q240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -14706,6 +14950,7 @@
       <c r="P241" t="n">
         <v>2014</v>
       </c>
+      <c r="Q241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -14766,6 +15011,7 @@
       <c r="P242" t="n">
         <v>2014</v>
       </c>
+      <c r="Q242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -14826,6 +15072,7 @@
       <c r="P243" t="n">
         <v>2014</v>
       </c>
+      <c r="Q243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -14886,6 +15133,7 @@
       <c r="P244" t="n">
         <v>2014</v>
       </c>
+      <c r="Q244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -14946,6 +15194,7 @@
       <c r="P245" t="n">
         <v>2014</v>
       </c>
+      <c r="Q245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -15006,6 +15255,7 @@
       <c r="P246" t="n">
         <v>2013</v>
       </c>
+      <c r="Q246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -15066,6 +15316,7 @@
       <c r="P247" t="n">
         <v>2013</v>
       </c>
+      <c r="Q247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -15126,6 +15377,7 @@
       <c r="P248" t="n">
         <v>2014</v>
       </c>
+      <c r="Q248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -15186,6 +15438,7 @@
       <c r="P249" t="n">
         <v>2013</v>
       </c>
+      <c r="Q249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -15246,6 +15499,7 @@
       <c r="P250" t="n">
         <v>2013</v>
       </c>
+      <c r="Q250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -15306,6 +15560,7 @@
       <c r="P251" t="n">
         <v>2014</v>
       </c>
+      <c r="Q251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -15366,6 +15621,7 @@
       <c r="P252" t="n">
         <v>2013</v>
       </c>
+      <c r="Q252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -15426,6 +15682,7 @@
       <c r="P253" t="n">
         <v>2013</v>
       </c>
+      <c r="Q253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -15486,6 +15743,7 @@
       <c r="P254" t="n">
         <v>2014</v>
       </c>
+      <c r="Q254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -15546,6 +15804,7 @@
       <c r="P255" t="n">
         <v>2014</v>
       </c>
+      <c r="Q255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -15606,6 +15865,7 @@
       <c r="P256" t="n">
         <v>2014</v>
       </c>
+      <c r="Q256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -15666,6 +15926,7 @@
       <c r="P257" t="n">
         <v>2014</v>
       </c>
+      <c r="Q257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -15726,6 +15987,7 @@
       <c r="P258" t="n">
         <v>2014</v>
       </c>
+      <c r="Q258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -15786,6 +16048,7 @@
       <c r="P259" t="n">
         <v>2014</v>
       </c>
+      <c r="Q259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -15846,6 +16109,7 @@
       <c r="P260" t="n">
         <v>2014</v>
       </c>
+      <c r="Q260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -15906,6 +16170,7 @@
       <c r="P261" t="n">
         <v>2013</v>
       </c>
+      <c r="Q261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -15966,6 +16231,7 @@
       <c r="P262" t="n">
         <v>2013</v>
       </c>
+      <c r="Q262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -16026,6 +16292,7 @@
       <c r="P263" t="n">
         <v>2014</v>
       </c>
+      <c r="Q263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -16086,6 +16353,7 @@
       <c r="P264" t="n">
         <v>2013</v>
       </c>
+      <c r="Q264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -16146,6 +16414,7 @@
       <c r="P265" t="n">
         <v>2013</v>
       </c>
+      <c r="Q265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -16206,6 +16475,7 @@
       <c r="P266" t="n">
         <v>2013</v>
       </c>
+      <c r="Q266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -16266,6 +16536,7 @@
       <c r="P267" t="n">
         <v>2014</v>
       </c>
+      <c r="Q267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -16326,6 +16597,7 @@
       <c r="P268" t="n">
         <v>2014</v>
       </c>
+      <c r="Q268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -16386,6 +16658,7 @@
       <c r="P269" t="n">
         <v>2014</v>
       </c>
+      <c r="Q269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -16446,6 +16719,7 @@
       <c r="P270" t="n">
         <v>2014</v>
       </c>
+      <c r="Q270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -16506,6 +16780,7 @@
       <c r="P271" t="n">
         <v>2014</v>
       </c>
+      <c r="Q271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -16566,6 +16841,7 @@
       <c r="P272" t="n">
         <v>2013</v>
       </c>
+      <c r="Q272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -16626,6 +16902,7 @@
       <c r="P273" t="n">
         <v>2014</v>
       </c>
+      <c r="Q273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -16686,6 +16963,7 @@
       <c r="P274" t="n">
         <v>2014</v>
       </c>
+      <c r="Q274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -16746,6 +17024,7 @@
       <c r="P275" t="n">
         <v>2014</v>
       </c>
+      <c r="Q275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -16806,6 +17085,7 @@
       <c r="P276" t="n">
         <v>2014</v>
       </c>
+      <c r="Q276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -16866,6 +17146,7 @@
       <c r="P277" t="n">
         <v>2014</v>
       </c>
+      <c r="Q277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -16926,6 +17207,7 @@
       <c r="P278" t="n">
         <v>2013</v>
       </c>
+      <c r="Q278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -16986,6 +17268,7 @@
       <c r="P279" t="n">
         <v>2014</v>
       </c>
+      <c r="Q279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -17046,6 +17329,7 @@
       <c r="P280" t="n">
         <v>2013</v>
       </c>
+      <c r="Q280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -17106,6 +17390,7 @@
       <c r="P281" t="n">
         <v>2013</v>
       </c>
+      <c r="Q281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -17166,6 +17451,7 @@
       <c r="P282" t="n">
         <v>2014</v>
       </c>
+      <c r="Q282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -17226,6 +17512,7 @@
       <c r="P283" t="n">
         <v>2014</v>
       </c>
+      <c r="Q283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -17286,6 +17573,7 @@
       <c r="P284" t="n">
         <v>2013</v>
       </c>
+      <c r="Q284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -17346,6 +17634,7 @@
       <c r="P285" t="n">
         <v>2014</v>
       </c>
+      <c r="Q285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -17406,6 +17695,7 @@
       <c r="P286" t="n">
         <v>2014</v>
       </c>
+      <c r="Q286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -17466,6 +17756,7 @@
       <c r="P287" t="n">
         <v>2013</v>
       </c>
+      <c r="Q287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -17526,6 +17817,7 @@
       <c r="P288" t="n">
         <v>2013</v>
       </c>
+      <c r="Q288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -17586,6 +17878,7 @@
       <c r="P289" t="n">
         <v>2014</v>
       </c>
+      <c r="Q289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -17646,6 +17939,7 @@
       <c r="P290" t="n">
         <v>2014</v>
       </c>
+      <c r="Q290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -17706,6 +18000,7 @@
       <c r="P291" t="n">
         <v>2014</v>
       </c>
+      <c r="Q291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -17766,6 +18061,7 @@
       <c r="P292" t="n">
         <v>2014</v>
       </c>
+      <c r="Q292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -17826,6 +18122,7 @@
       <c r="P293" t="n">
         <v>2014</v>
       </c>
+      <c r="Q293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -17886,6 +18183,7 @@
       <c r="P294" t="n">
         <v>2013</v>
       </c>
+      <c r="Q294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -17946,6 +18244,7 @@
       <c r="P295" t="n">
         <v>2013</v>
       </c>
+      <c r="Q295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -18006,6 +18305,7 @@
       <c r="P296" t="n">
         <v>2014</v>
       </c>
+      <c r="Q296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -18066,6 +18366,7 @@
       <c r="P297" t="n">
         <v>2014</v>
       </c>
+      <c r="Q297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -18126,6 +18427,7 @@
       <c r="P298" t="n">
         <v>2013</v>
       </c>
+      <c r="Q298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -18186,6 +18488,7 @@
       <c r="P299" t="n">
         <v>2013</v>
       </c>
+      <c r="Q299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -18246,6 +18549,7 @@
       <c r="P300" t="n">
         <v>2013</v>
       </c>
+      <c r="Q300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -18306,6 +18610,7 @@
       <c r="P301" t="n">
         <v>2014</v>
       </c>
+      <c r="Q301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -18366,6 +18671,7 @@
       <c r="P302" t="n">
         <v>2014</v>
       </c>
+      <c r="Q302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -18426,6 +18732,7 @@
       <c r="P303" t="n">
         <v>2013</v>
       </c>
+      <c r="Q303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -18486,6 +18793,7 @@
       <c r="P304" t="n">
         <v>2013</v>
       </c>
+      <c r="Q304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -18546,6 +18854,7 @@
       <c r="P305" t="n">
         <v>2013</v>
       </c>
+      <c r="Q305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -18606,6 +18915,7 @@
       <c r="P306" t="n">
         <v>2013</v>
       </c>
+      <c r="Q306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -18666,6 +18976,7 @@
       <c r="P307" t="n">
         <v>2014</v>
       </c>
+      <c r="Q307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -18726,6 +19037,7 @@
       <c r="P308" t="n">
         <v>2014</v>
       </c>
+      <c r="Q308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -18786,6 +19098,7 @@
       <c r="P309" t="n">
         <v>2014</v>
       </c>
+      <c r="Q309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -18846,6 +19159,7 @@
       <c r="P310" t="n">
         <v>2013</v>
       </c>
+      <c r="Q310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -18906,6 +19220,7 @@
       <c r="P311" t="n">
         <v>2014</v>
       </c>
+      <c r="Q311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -18966,6 +19281,7 @@
       <c r="P312" t="n">
         <v>2014</v>
       </c>
+      <c r="Q312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -19026,6 +19342,7 @@
       <c r="P313" t="n">
         <v>2014</v>
       </c>
+      <c r="Q313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -19086,6 +19403,7 @@
       <c r="P314" t="n">
         <v>2014</v>
       </c>
+      <c r="Q314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -19146,6 +19464,7 @@
       <c r="P315" t="n">
         <v>2014</v>
       </c>
+      <c r="Q315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -19206,6 +19525,7 @@
       <c r="P316" t="n">
         <v>2013</v>
       </c>
+      <c r="Q316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -19266,6 +19586,7 @@
       <c r="P317" t="n">
         <v>2014</v>
       </c>
+      <c r="Q317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -19326,6 +19647,7 @@
       <c r="P318" t="n">
         <v>2014</v>
       </c>
+      <c r="Q318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -19386,6 +19708,7 @@
       <c r="P319" t="n">
         <v>2013</v>
       </c>
+      <c r="Q319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -19446,6 +19769,7 @@
       <c r="P320" t="n">
         <v>2014</v>
       </c>
+      <c r="Q320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -19506,6 +19830,7 @@
       <c r="P321" t="n">
         <v>2014</v>
       </c>
+      <c r="Q321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -19566,6 +19891,7 @@
       <c r="P322" t="n">
         <v>2014</v>
       </c>
+      <c r="Q322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -19626,6 +19952,7 @@
       <c r="P323" t="n">
         <v>2014</v>
       </c>
+      <c r="Q323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -19686,6 +20013,7 @@
       <c r="P324" t="n">
         <v>2014</v>
       </c>
+      <c r="Q324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -19746,6 +20074,7 @@
       <c r="P325" t="n">
         <v>2013</v>
       </c>
+      <c r="Q325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -19806,6 +20135,7 @@
       <c r="P326" t="n">
         <v>2014</v>
       </c>
+      <c r="Q326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -19866,6 +20196,7 @@
       <c r="P327" t="n">
         <v>2014</v>
       </c>
+      <c r="Q327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -19926,6 +20257,7 @@
       <c r="P328" t="n">
         <v>2014</v>
       </c>
+      <c r="Q328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -19986,6 +20318,7 @@
       <c r="P329" t="n">
         <v>2014</v>
       </c>
+      <c r="Q329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -20046,6 +20379,7 @@
       <c r="P330" t="n">
         <v>2014</v>
       </c>
+      <c r="Q330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -20106,6 +20440,7 @@
       <c r="P331" t="n">
         <v>2014</v>
       </c>
+      <c r="Q331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -20166,6 +20501,7 @@
       <c r="P332" t="n">
         <v>2014</v>
       </c>
+      <c r="Q332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -20226,6 +20562,7 @@
       <c r="P333" t="n">
         <v>2013</v>
       </c>
+      <c r="Q333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -20286,6 +20623,7 @@
       <c r="P334" t="n">
         <v>2014</v>
       </c>
+      <c r="Q334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -20346,6 +20684,7 @@
       <c r="P335" t="n">
         <v>2014</v>
       </c>
+      <c r="Q335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -20406,6 +20745,7 @@
       <c r="P336" t="n">
         <v>2014</v>
       </c>
+      <c r="Q336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -20466,6 +20806,7 @@
       <c r="P337" t="n">
         <v>2014</v>
       </c>
+      <c r="Q337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -20526,6 +20867,7 @@
       <c r="P338" t="n">
         <v>2013</v>
       </c>
+      <c r="Q338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -20586,6 +20928,7 @@
       <c r="P339" t="n">
         <v>2014</v>
       </c>
+      <c r="Q339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -20646,6 +20989,7 @@
       <c r="P340" t="n">
         <v>2013</v>
       </c>
+      <c r="Q340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -20706,6 +21050,7 @@
       <c r="P341" t="n">
         <v>2013</v>
       </c>
+      <c r="Q341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -20766,6 +21111,7 @@
       <c r="P342" t="n">
         <v>2013</v>
       </c>
+      <c r="Q342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -20826,6 +21172,7 @@
       <c r="P343" t="n">
         <v>2013</v>
       </c>
+      <c r="Q343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -20886,6 +21233,7 @@
       <c r="P344" t="n">
         <v>2014</v>
       </c>
+      <c r="Q344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -20946,6 +21294,7 @@
       <c r="P345" t="n">
         <v>2014</v>
       </c>
+      <c r="Q345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -21006,6 +21355,7 @@
       <c r="P346" t="n">
         <v>2014</v>
       </c>
+      <c r="Q346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -21066,6 +21416,7 @@
       <c r="P347" t="n">
         <v>2014</v>
       </c>
+      <c r="Q347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -21126,6 +21477,7 @@
       <c r="P348" t="n">
         <v>2013</v>
       </c>
+      <c r="Q348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -21186,6 +21538,7 @@
       <c r="P349" t="n">
         <v>2014</v>
       </c>
+      <c r="Q349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -21246,6 +21599,7 @@
       <c r="P350" t="n">
         <v>2013</v>
       </c>
+      <c r="Q350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -21306,6 +21660,7 @@
       <c r="P351" t="n">
         <v>2014</v>
       </c>
+      <c r="Q351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -21366,6 +21721,7 @@
       <c r="P352" t="n">
         <v>2014</v>
       </c>
+      <c r="Q352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -21426,6 +21782,7 @@
       <c r="P353" t="n">
         <v>2014</v>
       </c>
+      <c r="Q353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -21486,6 +21843,7 @@
       <c r="P354" t="n">
         <v>2014</v>
       </c>
+      <c r="Q354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -21546,6 +21904,7 @@
       <c r="P355" t="n">
         <v>2014</v>
       </c>
+      <c r="Q355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -21606,6 +21965,7 @@
       <c r="P356" t="n">
         <v>2013</v>
       </c>
+      <c r="Q356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -21666,6 +22026,7 @@
       <c r="P357" t="n">
         <v>2014</v>
       </c>
+      <c r="Q357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -21726,6 +22087,7 @@
       <c r="P358" t="n">
         <v>2014</v>
       </c>
+      <c r="Q358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -21786,6 +22148,7 @@
       <c r="P359" t="n">
         <v>2014</v>
       </c>
+      <c r="Q359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -21846,6 +22209,7 @@
       <c r="P360" t="n">
         <v>2014</v>
       </c>
+      <c r="Q360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -21906,6 +22270,7 @@
       <c r="P361" t="n">
         <v>2014</v>
       </c>
+      <c r="Q361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -21966,6 +22331,7 @@
       <c r="P362" t="n">
         <v>2014</v>
       </c>
+      <c r="Q362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -22026,6 +22392,7 @@
       <c r="P363" t="n">
         <v>2014</v>
       </c>
+      <c r="Q363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -22086,6 +22453,7 @@
       <c r="P364" t="n">
         <v>2014</v>
       </c>
+      <c r="Q364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -22146,6 +22514,7 @@
       <c r="P365" t="n">
         <v>2014</v>
       </c>
+      <c r="Q365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -22206,6 +22575,7 @@
       <c r="P366" t="n">
         <v>2014</v>
       </c>
+      <c r="Q366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -22266,6 +22636,7 @@
       <c r="P367" t="n">
         <v>2014</v>
       </c>
+      <c r="Q367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -22326,6 +22697,7 @@
       <c r="P368" t="n">
         <v>2014</v>
       </c>
+      <c r="Q368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -22386,6 +22758,7 @@
       <c r="P369" t="n">
         <v>2014</v>
       </c>
+      <c r="Q369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -22446,6 +22819,7 @@
       <c r="P370" t="n">
         <v>2013</v>
       </c>
+      <c r="Q370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -22506,6 +22880,7 @@
       <c r="P371" t="n">
         <v>2014</v>
       </c>
+      <c r="Q371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -22566,6 +22941,7 @@
       <c r="P372" t="n">
         <v>2014</v>
       </c>
+      <c r="Q372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -22626,6 +23002,7 @@
       <c r="P373" t="n">
         <v>2014</v>
       </c>
+      <c r="Q373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -22686,6 +23063,7 @@
       <c r="P374" t="n">
         <v>2014</v>
       </c>
+      <c r="Q374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -22746,6 +23124,7 @@
       <c r="P375" t="n">
         <v>2014</v>
       </c>
+      <c r="Q375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -22806,6 +23185,7 @@
       <c r="P376" t="n">
         <v>2014</v>
       </c>
+      <c r="Q376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -22866,6 +23246,7 @@
       <c r="P377" t="n">
         <v>2014</v>
       </c>
+      <c r="Q377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -22926,6 +23307,7 @@
       <c r="P378" t="n">
         <v>2014</v>
       </c>
+      <c r="Q378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -22986,6 +23368,7 @@
       <c r="P379" t="n">
         <v>2013</v>
       </c>
+      <c r="Q379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -23046,6 +23429,7 @@
       <c r="P380" t="n">
         <v>2014</v>
       </c>
+      <c r="Q380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -23106,6 +23490,7 @@
       <c r="P381" t="n">
         <v>2014</v>
       </c>
+      <c r="Q381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -23166,6 +23551,7 @@
       <c r="P382" t="n">
         <v>2013</v>
       </c>
+      <c r="Q382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -23226,6 +23612,7 @@
       <c r="P383" t="n">
         <v>2013</v>
       </c>
+      <c r="Q383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -23286,6 +23673,7 @@
       <c r="P384" t="n">
         <v>2014</v>
       </c>
+      <c r="Q384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -23346,6 +23734,7 @@
       <c r="P385" t="n">
         <v>2014</v>
       </c>
+      <c r="Q385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -23406,6 +23795,7 @@
       <c r="P386" t="n">
         <v>2014</v>
       </c>
+      <c r="Q386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -23466,6 +23856,7 @@
       <c r="P387" t="n">
         <v>2014</v>
       </c>
+      <c r="Q387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -23526,6 +23917,7 @@
       <c r="P388" t="n">
         <v>2013</v>
       </c>
+      <c r="Q388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -23586,6 +23978,7 @@
       <c r="P389" t="n">
         <v>2014</v>
       </c>
+      <c r="Q389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -23646,6 +24039,7 @@
       <c r="P390" t="n">
         <v>2014</v>
       </c>
+      <c r="Q390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -23706,6 +24100,7 @@
       <c r="P391" t="n">
         <v>2014</v>
       </c>
+      <c r="Q391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -23766,6 +24161,7 @@
       <c r="P392" t="n">
         <v>2014</v>
       </c>
+      <c r="Q392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -23826,6 +24222,7 @@
       <c r="P393" t="n">
         <v>2014</v>
       </c>
+      <c r="Q393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -23886,6 +24283,7 @@
       <c r="P394" t="n">
         <v>2014</v>
       </c>
+      <c r="Q394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -23946,6 +24344,7 @@
       <c r="P395" t="n">
         <v>2013</v>
       </c>
+      <c r="Q395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -24006,6 +24405,7 @@
       <c r="P396" t="n">
         <v>2014</v>
       </c>
+      <c r="Q396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -24066,6 +24466,7 @@
       <c r="P397" t="n">
         <v>2014</v>
       </c>
+      <c r="Q397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -24126,6 +24527,7 @@
       <c r="P398" t="n">
         <v>2014</v>
       </c>
+      <c r="Q398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -24186,6 +24588,7 @@
       <c r="P399" t="n">
         <v>2014</v>
       </c>
+      <c r="Q399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -24246,6 +24649,7 @@
       <c r="P400" t="n">
         <v>2014</v>
       </c>
+      <c r="Q400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -24306,6 +24710,7 @@
       <c r="P401" t="n">
         <v>2014</v>
       </c>
+      <c r="Q401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -24366,6 +24771,7 @@
       <c r="P402" t="n">
         <v>2013</v>
       </c>
+      <c r="Q402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -24426,6 +24832,7 @@
       <c r="P403" t="n">
         <v>2014</v>
       </c>
+      <c r="Q403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -24486,6 +24893,7 @@
       <c r="P404" t="n">
         <v>2014</v>
       </c>
+      <c r="Q404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -24546,6 +24954,7 @@
       <c r="P405" t="n">
         <v>2014</v>
       </c>
+      <c r="Q405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -24606,6 +25015,7 @@
       <c r="P406" t="n">
         <v>2013</v>
       </c>
+      <c r="Q406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -24666,6 +25076,7 @@
       <c r="P407" t="n">
         <v>2014</v>
       </c>
+      <c r="Q407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -24726,6 +25137,7 @@
       <c r="P408" t="n">
         <v>2014</v>
       </c>
+      <c r="Q408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -24786,6 +25198,7 @@
       <c r="P409" t="n">
         <v>2013</v>
       </c>
+      <c r="Q409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -24846,6 +25259,7 @@
       <c r="P410" t="n">
         <v>2014</v>
       </c>
+      <c r="Q410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -24906,6 +25320,7 @@
       <c r="P411" t="n">
         <v>2013</v>
       </c>
+      <c r="Q411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -24966,6 +25381,7 @@
       <c r="P412" t="n">
         <v>2013</v>
       </c>
+      <c r="Q412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -25026,6 +25442,7 @@
       <c r="P413" t="n">
         <v>2014</v>
       </c>
+      <c r="Q413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -25086,6 +25503,7 @@
       <c r="P414" t="n">
         <v>2013</v>
       </c>
+      <c r="Q414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -25146,6 +25564,7 @@
       <c r="P415" t="n">
         <v>2014</v>
       </c>
+      <c r="Q415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -25206,6 +25625,7 @@
       <c r="P416" t="n">
         <v>2014</v>
       </c>
+      <c r="Q416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -25266,6 +25686,7 @@
       <c r="P417" t="n">
         <v>2014</v>
       </c>
+      <c r="Q417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -25326,6 +25747,7 @@
       <c r="P418" t="n">
         <v>2014</v>
       </c>
+      <c r="Q418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -25386,6 +25808,7 @@
       <c r="P419" t="n">
         <v>2014</v>
       </c>
+      <c r="Q419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -25446,6 +25869,7 @@
       <c r="P420" t="n">
         <v>2013</v>
       </c>
+      <c r="Q420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -25506,6 +25930,7 @@
       <c r="P421" t="n">
         <v>2014</v>
       </c>
+      <c r="Q421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -25566,6 +25991,7 @@
       <c r="P422" t="n">
         <v>2013</v>
       </c>
+      <c r="Q422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -25626,6 +26052,7 @@
       <c r="P423" t="n">
         <v>2014</v>
       </c>
+      <c r="Q423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -25686,6 +26113,7 @@
       <c r="P424" t="n">
         <v>2014</v>
       </c>
+      <c r="Q424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -25746,6 +26174,7 @@
       <c r="P425" t="n">
         <v>2014</v>
       </c>
+      <c r="Q425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -25806,6 +26235,7 @@
       <c r="P426" t="n">
         <v>2014</v>
       </c>
+      <c r="Q426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -25866,6 +26296,7 @@
       <c r="P427" t="n">
         <v>2014</v>
       </c>
+      <c r="Q427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -25926,6 +26357,7 @@
       <c r="P428" t="n">
         <v>2014</v>
       </c>
+      <c r="Q428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -25986,6 +26418,7 @@
       <c r="P429" t="n">
         <v>2014</v>
       </c>
+      <c r="Q429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -26046,6 +26479,7 @@
       <c r="P430" t="n">
         <v>2014</v>
       </c>
+      <c r="Q430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -26106,6 +26540,7 @@
       <c r="P431" t="n">
         <v>2014</v>
       </c>
+      <c r="Q431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -26166,6 +26601,7 @@
       <c r="P432" t="n">
         <v>2014</v>
       </c>
+      <c r="Q432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -26226,6 +26662,7 @@
       <c r="P433" t="n">
         <v>2014</v>
       </c>
+      <c r="Q433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -26286,6 +26723,7 @@
       <c r="P434" t="n">
         <v>2014</v>
       </c>
+      <c r="Q434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -26346,6 +26784,7 @@
       <c r="P435" t="n">
         <v>2013</v>
       </c>
+      <c r="Q435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -26406,6 +26845,7 @@
       <c r="P436" t="n">
         <v>2014</v>
       </c>
+      <c r="Q436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -26466,6 +26906,7 @@
       <c r="P437" t="n">
         <v>2014</v>
       </c>
+      <c r="Q437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -26526,6 +26967,7 @@
       <c r="P438" t="n">
         <v>2014</v>
       </c>
+      <c r="Q438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -26586,6 +27028,7 @@
       <c r="P439" t="n">
         <v>2014</v>
       </c>
+      <c r="Q439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -26646,6 +27089,7 @@
       <c r="P440" t="n">
         <v>2013</v>
       </c>
+      <c r="Q440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -26706,6 +27150,7 @@
       <c r="P441" t="n">
         <v>2014</v>
       </c>
+      <c r="Q441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -26766,6 +27211,7 @@
       <c r="P442" t="n">
         <v>2014</v>
       </c>
+      <c r="Q442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -26826,6 +27272,7 @@
       <c r="P443" t="n">
         <v>2014</v>
       </c>
+      <c r="Q443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -26886,6 +27333,7 @@
       <c r="P444" t="n">
         <v>2014</v>
       </c>
+      <c r="Q444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -26946,6 +27394,7 @@
       <c r="P445" t="n">
         <v>2014</v>
       </c>
+      <c r="Q445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -27006,6 +27455,7 @@
       <c r="P446" t="n">
         <v>2014</v>
       </c>
+      <c r="Q446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -27066,6 +27516,7 @@
       <c r="P447" t="n">
         <v>2014</v>
       </c>
+      <c r="Q447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -27126,6 +27577,7 @@
       <c r="P448" t="n">
         <v>2014</v>
       </c>
+      <c r="Q448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -27186,6 +27638,7 @@
       <c r="P449" t="n">
         <v>2014</v>
       </c>
+      <c r="Q449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -27246,6 +27699,7 @@
       <c r="P450" t="n">
         <v>2014</v>
       </c>
+      <c r="Q450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -27306,6 +27760,7 @@
       <c r="P451" t="n">
         <v>2014</v>
       </c>
+      <c r="Q451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -27366,6 +27821,7 @@
       <c r="P452" t="n">
         <v>2013</v>
       </c>
+      <c r="Q452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -27426,6 +27882,7 @@
       <c r="P453" t="n">
         <v>2014</v>
       </c>
+      <c r="Q453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -27486,6 +27943,7 @@
       <c r="P454" t="n">
         <v>2014</v>
       </c>
+      <c r="Q454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -27546,6 +28004,7 @@
       <c r="P455" t="n">
         <v>2014</v>
       </c>
+      <c r="Q455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -27606,6 +28065,7 @@
       <c r="P456" t="n">
         <v>2013</v>
       </c>
+      <c r="Q456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -27666,6 +28126,7 @@
       <c r="P457" t="n">
         <v>2013</v>
       </c>
+      <c r="Q457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -27726,6 +28187,7 @@
       <c r="P458" t="n">
         <v>2014</v>
       </c>
+      <c r="Q458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -27786,6 +28248,7 @@
       <c r="P459" t="n">
         <v>2013</v>
       </c>
+      <c r="Q459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -27846,6 +28309,7 @@
       <c r="P460" t="n">
         <v>2014</v>
       </c>
+      <c r="Q460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -27906,6 +28370,7 @@
       <c r="P461" t="n">
         <v>2013</v>
       </c>
+      <c r="Q461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -27966,6 +28431,7 @@
       <c r="P462" t="n">
         <v>2014</v>
       </c>
+      <c r="Q462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -28026,6 +28492,7 @@
       <c r="P463" t="n">
         <v>2013</v>
       </c>
+      <c r="Q463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -28086,6 +28553,7 @@
       <c r="P464" t="n">
         <v>2014</v>
       </c>
+      <c r="Q464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -28146,6 +28614,7 @@
       <c r="P465" t="n">
         <v>2014</v>
       </c>
+      <c r="Q465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -28206,6 +28675,7 @@
       <c r="P466" t="n">
         <v>2014</v>
       </c>
+      <c r="Q466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -28266,6 +28736,7 @@
       <c r="P467" t="n">
         <v>2013</v>
       </c>
+      <c r="Q467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -28326,6 +28797,7 @@
       <c r="P468" t="n">
         <v>2014</v>
       </c>
+      <c r="Q468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -28386,6 +28858,7 @@
       <c r="P469" t="n">
         <v>2014</v>
       </c>
+      <c r="Q469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -28446,6 +28919,7 @@
       <c r="P470" t="n">
         <v>2014</v>
       </c>
+      <c r="Q470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -28506,6 +28980,7 @@
       <c r="P471" t="n">
         <v>2014</v>
       </c>
+      <c r="Q471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -28566,6 +29041,7 @@
       <c r="P472" t="n">
         <v>2014</v>
       </c>
+      <c r="Q472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -28626,6 +29102,7 @@
       <c r="P473" t="n">
         <v>2014</v>
       </c>
+      <c r="Q473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -28686,6 +29163,7 @@
       <c r="P474" t="n">
         <v>2013</v>
       </c>
+      <c r="Q474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -28746,6 +29224,7 @@
       <c r="P475" t="n">
         <v>2014</v>
       </c>
+      <c r="Q475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -28806,6 +29285,7 @@
       <c r="P476" t="n">
         <v>2014</v>
       </c>
+      <c r="Q476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -28866,6 +29346,7 @@
       <c r="P477" t="n">
         <v>2013</v>
       </c>
+      <c r="Q477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -28926,6 +29407,7 @@
       <c r="P478" t="n">
         <v>2014</v>
       </c>
+      <c r="Q478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -28986,6 +29468,7 @@
       <c r="P479" t="n">
         <v>2014</v>
       </c>
+      <c r="Q479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -29046,6 +29529,7 @@
       <c r="P480" t="n">
         <v>2014</v>
       </c>
+      <c r="Q480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -29106,6 +29590,7 @@
       <c r="P481" t="n">
         <v>2014</v>
       </c>
+      <c r="Q481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -29166,6 +29651,7 @@
       <c r="P482" t="n">
         <v>2014</v>
       </c>
+      <c r="Q482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -29226,6 +29712,7 @@
       <c r="P483" t="n">
         <v>2013</v>
       </c>
+      <c r="Q483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -29286,6 +29773,7 @@
       <c r="P484" t="n">
         <v>2013</v>
       </c>
+      <c r="Q484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -29346,6 +29834,7 @@
       <c r="P485" t="n">
         <v>2014</v>
       </c>
+      <c r="Q485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -29406,6 +29895,7 @@
       <c r="P486" t="n">
         <v>2013</v>
       </c>
+      <c r="Q486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -29466,6 +29956,7 @@
       <c r="P487" t="n">
         <v>2014</v>
       </c>
+      <c r="Q487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -29526,6 +30017,7 @@
       <c r="P488" t="n">
         <v>2014</v>
       </c>
+      <c r="Q488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -29586,6 +30078,7 @@
       <c r="P489" t="n">
         <v>2014</v>
       </c>
+      <c r="Q489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -29646,6 +30139,7 @@
       <c r="P490" t="n">
         <v>2014</v>
       </c>
+      <c r="Q490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -29706,6 +30200,7 @@
       <c r="P491" t="n">
         <v>2014</v>
       </c>
+      <c r="Q491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -29766,6 +30261,7 @@
       <c r="P492" t="n">
         <v>2014</v>
       </c>
+      <c r="Q492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -29826,6 +30322,7 @@
       <c r="P493" t="n">
         <v>2014</v>
       </c>
+      <c r="Q493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -29886,6 +30383,7 @@
       <c r="P494" t="n">
         <v>2014</v>
       </c>
+      <c r="Q494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -29946,6 +30444,7 @@
       <c r="P495" t="n">
         <v>2014</v>
       </c>
+      <c r="Q495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -30006,6 +30505,7 @@
       <c r="P496" t="n">
         <v>2013</v>
       </c>
+      <c r="Q496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -30066,6 +30566,7 @@
       <c r="P497" t="n">
         <v>2014</v>
       </c>
+      <c r="Q497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -30126,6 +30627,7 @@
       <c r="P498" t="n">
         <v>2013</v>
       </c>
+      <c r="Q498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -30186,6 +30688,7 @@
       <c r="P499" t="n">
         <v>2014</v>
       </c>
+      <c r="Q499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -30246,6 +30749,7 @@
       <c r="P500" t="n">
         <v>2014</v>
       </c>
+      <c r="Q500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -30306,6 +30810,7 @@
       <c r="P501" t="n">
         <v>2014</v>
       </c>
+      <c r="Q501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -30366,6 +30871,7 @@
       <c r="P502" t="n">
         <v>2013</v>
       </c>
+      <c r="Q502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -30426,6 +30932,7 @@
       <c r="P503" t="n">
         <v>2014</v>
       </c>
+      <c r="Q503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -30486,6 +30993,7 @@
       <c r="P504" t="n">
         <v>2014</v>
       </c>
+      <c r="Q504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -30546,6 +31054,7 @@
       <c r="P505" t="n">
         <v>2014</v>
       </c>
+      <c r="Q505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -30606,6 +31115,7 @@
       <c r="P506" t="n">
         <v>2014</v>
       </c>
+      <c r="Q506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -30666,6 +31176,7 @@
       <c r="P507" t="n">
         <v>2014</v>
       </c>
+      <c r="Q507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -30726,6 +31237,7 @@
       <c r="P508" t="n">
         <v>2014</v>
       </c>
+      <c r="Q508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -30786,6 +31298,7 @@
       <c r="P509" t="n">
         <v>2013</v>
       </c>
+      <c r="Q509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -30846,6 +31359,7 @@
       <c r="P510" t="n">
         <v>2013</v>
       </c>
+      <c r="Q510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -30906,6 +31420,7 @@
       <c r="P511" t="n">
         <v>2014</v>
       </c>
+      <c r="Q511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -30966,6 +31481,7 @@
       <c r="P512" t="n">
         <v>2013</v>
       </c>
+      <c r="Q512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -31026,6 +31542,7 @@
       <c r="P513" t="n">
         <v>2014</v>
       </c>
+      <c r="Q513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -31086,6 +31603,7 @@
       <c r="P514" t="n">
         <v>2014</v>
       </c>
+      <c r="Q514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -31146,6 +31664,7 @@
       <c r="P515" t="n">
         <v>2014</v>
       </c>
+      <c r="Q515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -31206,6 +31725,7 @@
       <c r="P516" t="n">
         <v>2014</v>
       </c>
+      <c r="Q516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -31266,6 +31786,7 @@
       <c r="P517" t="n">
         <v>2014</v>
       </c>
+      <c r="Q517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -31326,6 +31847,7 @@
       <c r="P518" t="n">
         <v>2014</v>
       </c>
+      <c r="Q518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -31386,6 +31908,7 @@
       <c r="P519" t="n">
         <v>2014</v>
       </c>
+      <c r="Q519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -31446,6 +31969,7 @@
       <c r="P520" t="n">
         <v>2014</v>
       </c>
+      <c r="Q520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -31506,6 +32030,7 @@
       <c r="P521" t="n">
         <v>2014</v>
       </c>
+      <c r="Q521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -31566,6 +32091,7 @@
       <c r="P522" t="n">
         <v>2013</v>
       </c>
+      <c r="Q522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -31626,6 +32152,7 @@
       <c r="P523" t="n">
         <v>2014</v>
       </c>
+      <c r="Q523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -31686,6 +32213,7 @@
       <c r="P524" t="n">
         <v>2013</v>
       </c>
+      <c r="Q524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -31746,6 +32274,7 @@
       <c r="P525" t="n">
         <v>2013</v>
       </c>
+      <c r="Q525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -31806,6 +32335,7 @@
       <c r="P526" t="n">
         <v>2013</v>
       </c>
+      <c r="Q526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -31866,6 +32396,7 @@
       <c r="P527" t="n">
         <v>2014</v>
       </c>
+      <c r="Q527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -31926,6 +32457,7 @@
       <c r="P528" t="n">
         <v>2014</v>
       </c>
+      <c r="Q528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -31986,6 +32518,7 @@
       <c r="P529" t="n">
         <v>2014</v>
       </c>
+      <c r="Q529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -32046,6 +32579,7 @@
       <c r="P530" t="n">
         <v>2013</v>
       </c>
+      <c r="Q530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -32106,6 +32640,7 @@
       <c r="P531" t="n">
         <v>2014</v>
       </c>
+      <c r="Q531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -32166,6 +32701,7 @@
       <c r="P532" t="n">
         <v>2014</v>
       </c>
+      <c r="Q532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -32226,6 +32762,7 @@
       <c r="P533" t="n">
         <v>2014</v>
       </c>
+      <c r="Q533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -32286,6 +32823,7 @@
       <c r="P534" t="n">
         <v>2013</v>
       </c>
+      <c r="Q534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -32346,6 +32884,7 @@
       <c r="P535" t="n">
         <v>2013</v>
       </c>
+      <c r="Q535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -32406,6 +32945,7 @@
       <c r="P536" t="n">
         <v>2014</v>
       </c>
+      <c r="Q536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -32466,6 +33006,7 @@
       <c r="P537" t="n">
         <v>2013</v>
       </c>
+      <c r="Q537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -32526,6 +33067,7 @@
       <c r="P538" t="n">
         <v>2014</v>
       </c>
+      <c r="Q538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -32586,6 +33128,7 @@
       <c r="P539" t="n">
         <v>2013</v>
       </c>
+      <c r="Q539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -32646,6 +33189,7 @@
       <c r="P540" t="n">
         <v>2014</v>
       </c>
+      <c r="Q540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -32706,6 +33250,7 @@
       <c r="P541" t="n">
         <v>2014</v>
       </c>
+      <c r="Q541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -32766,6 +33311,7 @@
       <c r="P542" t="n">
         <v>2014</v>
       </c>
+      <c r="Q542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -32826,6 +33372,7 @@
       <c r="P543" t="n">
         <v>2014</v>
       </c>
+      <c r="Q543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -32886,6 +33433,7 @@
       <c r="P544" t="n">
         <v>2014</v>
       </c>
+      <c r="Q544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -32946,6 +33494,7 @@
       <c r="P545" t="n">
         <v>2014</v>
       </c>
+      <c r="Q545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -33006,6 +33555,7 @@
       <c r="P546" t="n">
         <v>2013</v>
       </c>
+      <c r="Q546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -33066,6 +33616,7 @@
       <c r="P547" t="n">
         <v>2013</v>
       </c>
+      <c r="Q547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -33126,6 +33677,7 @@
       <c r="P548" t="n">
         <v>2014</v>
       </c>
+      <c r="Q548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -33186,6 +33738,7 @@
       <c r="P549" t="n">
         <v>2014</v>
       </c>
+      <c r="Q549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -33246,6 +33799,7 @@
       <c r="P550" t="n">
         <v>2014</v>
       </c>
+      <c r="Q550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -33306,6 +33860,7 @@
       <c r="P551" t="n">
         <v>2014</v>
       </c>
+      <c r="Q551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -33366,6 +33921,7 @@
       <c r="P552" t="n">
         <v>2013</v>
       </c>
+      <c r="Q552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -33426,6 +33982,7 @@
       <c r="P553" t="n">
         <v>2014</v>
       </c>
+      <c r="Q553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -33486,6 +34043,7 @@
       <c r="P554" t="n">
         <v>2014</v>
       </c>
+      <c r="Q554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -33546,6 +34104,7 @@
       <c r="P555" t="n">
         <v>2014</v>
       </c>
+      <c r="Q555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -33606,6 +34165,7 @@
       <c r="P556" t="n">
         <v>2014</v>
       </c>
+      <c r="Q556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -33666,6 +34226,7 @@
       <c r="P557" t="n">
         <v>2013</v>
       </c>
+      <c r="Q557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -33726,6 +34287,7 @@
       <c r="P558" t="n">
         <v>2014</v>
       </c>
+      <c r="Q558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -33786,6 +34348,7 @@
       <c r="P559" t="n">
         <v>2014</v>
       </c>
+      <c r="Q559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -33846,6 +34409,7 @@
       <c r="P560" t="n">
         <v>2014</v>
       </c>
+      <c r="Q560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -33906,6 +34470,7 @@
       <c r="P561" t="n">
         <v>2014</v>
       </c>
+      <c r="Q561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -33966,6 +34531,7 @@
       <c r="P562" t="n">
         <v>2014</v>
       </c>
+      <c r="Q562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -34026,6 +34592,7 @@
       <c r="P563" t="n">
         <v>2014</v>
       </c>
+      <c r="Q563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -34086,6 +34653,7 @@
       <c r="P564" t="n">
         <v>2013</v>
       </c>
+      <c r="Q564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -34146,6 +34714,7 @@
       <c r="P565" t="n">
         <v>2014</v>
       </c>
+      <c r="Q565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -34206,6 +34775,7 @@
       <c r="P566" t="n">
         <v>2014</v>
       </c>
+      <c r="Q566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -34266,6 +34836,7 @@
       <c r="P567" t="n">
         <v>2014</v>
       </c>
+      <c r="Q567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -34326,6 +34897,7 @@
       <c r="P568" t="n">
         <v>2014</v>
       </c>
+      <c r="Q568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -34386,6 +34958,7 @@
       <c r="P569" t="n">
         <v>2014</v>
       </c>
+      <c r="Q569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -34446,6 +35019,7 @@
       <c r="P570" t="n">
         <v>2014</v>
       </c>
+      <c r="Q570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -34506,6 +35080,7 @@
       <c r="P571" t="n">
         <v>2013</v>
       </c>
+      <c r="Q571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -34566,6 +35141,7 @@
       <c r="P572" t="n">
         <v>2014</v>
       </c>
+      <c r="Q572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -34626,6 +35202,7 @@
       <c r="P573" t="n">
         <v>2014</v>
       </c>
+      <c r="Q573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -34686,6 +35263,7 @@
       <c r="P574" t="n">
         <v>2014</v>
       </c>
+      <c r="Q574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -34746,6 +35324,7 @@
       <c r="P575" t="n">
         <v>2014</v>
       </c>
+      <c r="Q575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -34806,6 +35385,7 @@
       <c r="P576" t="n">
         <v>2014</v>
       </c>
+      <c r="Q576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -34866,6 +35446,7 @@
       <c r="P577" t="n">
         <v>2013</v>
       </c>
+      <c r="Q577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -34926,6 +35507,7 @@
       <c r="P578" t="n">
         <v>2014</v>
       </c>
+      <c r="Q578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -34986,6 +35568,7 @@
       <c r="P579" t="n">
         <v>2014</v>
       </c>
+      <c r="Q579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -35046,6 +35629,7 @@
       <c r="P580" t="n">
         <v>2014</v>
       </c>
+      <c r="Q580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -35106,6 +35690,7 @@
       <c r="P581" t="n">
         <v>2014</v>
       </c>
+      <c r="Q581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -35166,6 +35751,7 @@
       <c r="P582" t="n">
         <v>2013</v>
       </c>
+      <c r="Q582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -35226,6 +35812,7 @@
       <c r="P583" t="n">
         <v>2014</v>
       </c>
+      <c r="Q583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -35286,6 +35873,7 @@
       <c r="P584" t="n">
         <v>2014</v>
       </c>
+      <c r="Q584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -35346,6 +35934,7 @@
       <c r="P585" t="n">
         <v>2014</v>
       </c>
+      <c r="Q585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -35406,6 +35995,7 @@
       <c r="P586" t="n">
         <v>2014</v>
       </c>
+      <c r="Q586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -35466,6 +36056,7 @@
       <c r="P587" t="n">
         <v>2014</v>
       </c>
+      <c r="Q587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -35526,6 +36117,7 @@
       <c r="P588" t="n">
         <v>2014</v>
       </c>
+      <c r="Q588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -35586,6 +36178,7 @@
       <c r="P589" t="n">
         <v>2014</v>
       </c>
+      <c r="Q589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -35646,6 +36239,7 @@
       <c r="P590" t="n">
         <v>2014</v>
       </c>
+      <c r="Q590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -35706,6 +36300,7 @@
       <c r="P591" t="n">
         <v>2014</v>
       </c>
+      <c r="Q591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -35766,6 +36361,7 @@
       <c r="P592" t="n">
         <v>2014</v>
       </c>
+      <c r="Q592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -35826,6 +36422,7 @@
       <c r="P593" t="n">
         <v>2014</v>
       </c>
+      <c r="Q593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -35886,6 +36483,7 @@
       <c r="P594" t="n">
         <v>2014</v>
       </c>
+      <c r="Q594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -35946,6 +36544,7 @@
       <c r="P595" t="n">
         <v>2014</v>
       </c>
+      <c r="Q595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -36006,6 +36605,7 @@
       <c r="P596" t="n">
         <v>2014</v>
       </c>
+      <c r="Q596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -36066,6 +36666,7 @@
       <c r="P597" t="n">
         <v>2014</v>
       </c>
+      <c r="Q597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -36126,6 +36727,7 @@
       <c r="P598" t="n">
         <v>2014</v>
       </c>
+      <c r="Q598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -36186,6 +36788,7 @@
       <c r="P599" t="n">
         <v>2014</v>
       </c>
+      <c r="Q599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -36246,6 +36849,7 @@
       <c r="P600" t="n">
         <v>2014</v>
       </c>
+      <c r="Q600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -36306,6 +36910,7 @@
       <c r="P601" t="n">
         <v>2014</v>
       </c>
+      <c r="Q601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -36366,6 +36971,7 @@
       <c r="P602" t="n">
         <v>2014</v>
       </c>
+      <c r="Q602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -36426,6 +37032,7 @@
       <c r="P603" t="n">
         <v>2014</v>
       </c>
+      <c r="Q603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -36486,6 +37093,7 @@
       <c r="P604" t="n">
         <v>2013</v>
       </c>
+      <c r="Q604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -36546,6 +37154,7 @@
       <c r="P605" t="n">
         <v>2014</v>
       </c>
+      <c r="Q605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -36606,6 +37215,7 @@
       <c r="P606" t="n">
         <v>2013</v>
       </c>
+      <c r="Q606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -36666,6 +37276,7 @@
       <c r="P607" t="n">
         <v>2014</v>
       </c>
+      <c r="Q607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -36726,6 +37337,7 @@
       <c r="P608" t="n">
         <v>2014</v>
       </c>
+      <c r="Q608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -36786,6 +37398,7 @@
       <c r="P609" t="n">
         <v>2014</v>
       </c>
+      <c r="Q609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -36846,6 +37459,7 @@
       <c r="P610" t="n">
         <v>2014</v>
       </c>
+      <c r="Q610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -36906,6 +37520,7 @@
       <c r="P611" t="n">
         <v>2014</v>
       </c>
+      <c r="Q611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -36966,6 +37581,7 @@
       <c r="P612" t="n">
         <v>2014</v>
       </c>
+      <c r="Q612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -37026,6 +37642,7 @@
       <c r="P613" t="n">
         <v>2013</v>
       </c>
+      <c r="Q613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -37086,6 +37703,7 @@
       <c r="P614" t="n">
         <v>2014</v>
       </c>
+      <c r="Q614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -37146,6 +37764,7 @@
       <c r="P615" t="n">
         <v>2014</v>
       </c>
+      <c r="Q615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -37206,6 +37825,7 @@
       <c r="P616" t="n">
         <v>2013</v>
       </c>
+      <c r="Q616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -37266,6 +37886,7 @@
       <c r="P617" t="n">
         <v>2014</v>
       </c>
+      <c r="Q617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -37326,6 +37947,7 @@
       <c r="P618" t="n">
         <v>2014</v>
       </c>
+      <c r="Q618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -37386,6 +38008,7 @@
       <c r="P619" t="n">
         <v>2013</v>
       </c>
+      <c r="Q619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -37446,6 +38069,7 @@
       <c r="P620" t="n">
         <v>2014</v>
       </c>
+      <c r="Q620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -37506,6 +38130,7 @@
       <c r="P621" t="n">
         <v>2014</v>
       </c>
+      <c r="Q621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -37566,6 +38191,7 @@
       <c r="P622" t="n">
         <v>2014</v>
       </c>
+      <c r="Q622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -37626,6 +38252,7 @@
       <c r="P623" t="n">
         <v>2014</v>
       </c>
+      <c r="Q623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -37686,6 +38313,7 @@
       <c r="P624" t="n">
         <v>2014</v>
       </c>
+      <c r="Q624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -37746,6 +38374,7 @@
       <c r="P625" t="n">
         <v>2014</v>
       </c>
+      <c r="Q625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -37806,6 +38435,7 @@
       <c r="P626" t="n">
         <v>2013</v>
       </c>
+      <c r="Q626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -37866,6 +38496,7 @@
       <c r="P627" t="n">
         <v>2014</v>
       </c>
+      <c r="Q627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -37926,6 +38557,7 @@
       <c r="P628" t="n">
         <v>2013</v>
       </c>
+      <c r="Q628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -37986,6 +38618,7 @@
       <c r="P629" t="n">
         <v>2014</v>
       </c>
+      <c r="Q629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -38046,6 +38679,7 @@
       <c r="P630" t="n">
         <v>2014</v>
       </c>
+      <c r="Q630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -38106,6 +38740,7 @@
       <c r="P631" t="n">
         <v>2014</v>
       </c>
+      <c r="Q631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -38166,6 +38801,7 @@
       <c r="P632" t="n">
         <v>2014</v>
       </c>
+      <c r="Q632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -38226,6 +38862,7 @@
       <c r="P633" t="n">
         <v>2013</v>
       </c>
+      <c r="Q633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -38286,6 +38923,7 @@
       <c r="P634" t="n">
         <v>2014</v>
       </c>
+      <c r="Q634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -38346,6 +38984,7 @@
       <c r="P635" t="n">
         <v>2014</v>
       </c>
+      <c r="Q635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -38406,6 +39045,7 @@
       <c r="P636" t="n">
         <v>2014</v>
       </c>
+      <c r="Q636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -38466,6 +39106,7 @@
       <c r="P637" t="n">
         <v>2014</v>
       </c>
+      <c r="Q637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -38526,6 +39167,7 @@
       <c r="P638" t="n">
         <v>2013</v>
       </c>
+      <c r="Q638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -38586,6 +39228,7 @@
       <c r="P639" t="n">
         <v>2014</v>
       </c>
+      <c r="Q639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -38646,6 +39289,7 @@
       <c r="P640" t="n">
         <v>2014</v>
       </c>
+      <c r="Q640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -38706,6 +39350,7 @@
       <c r="P641" t="n">
         <v>2013</v>
       </c>
+      <c r="Q641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -38766,6 +39411,7 @@
       <c r="P642" t="n">
         <v>2013</v>
       </c>
+      <c r="Q642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -38826,6 +39472,7 @@
       <c r="P643" t="n">
         <v>2014</v>
       </c>
+      <c r="Q643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -38886,6 +39533,7 @@
       <c r="P644" t="n">
         <v>2014</v>
       </c>
+      <c r="Q644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -38946,6 +39594,7 @@
       <c r="P645" t="n">
         <v>2014</v>
       </c>
+      <c r="Q645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -39006,6 +39655,7 @@
       <c r="P646" t="n">
         <v>2013</v>
       </c>
+      <c r="Q646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -39066,6 +39716,7 @@
       <c r="P647" t="n">
         <v>2014</v>
       </c>
+      <c r="Q647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -39126,6 +39777,7 @@
       <c r="P648" t="n">
         <v>2013</v>
       </c>
+      <c r="Q648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -39186,6 +39838,7 @@
       <c r="P649" t="n">
         <v>2014</v>
       </c>
+      <c r="Q649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -39246,6 +39899,7 @@
       <c r="P650" t="n">
         <v>2014</v>
       </c>
+      <c r="Q650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -39306,6 +39960,7 @@
       <c r="P651" t="n">
         <v>2014</v>
       </c>
+      <c r="Q651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -39366,6 +40021,7 @@
       <c r="P652" t="n">
         <v>2013</v>
       </c>
+      <c r="Q652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -39426,6 +40082,7 @@
       <c r="P653" t="n">
         <v>2013</v>
       </c>
+      <c r="Q653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -39486,6 +40143,7 @@
       <c r="P654" t="n">
         <v>2014</v>
       </c>
+      <c r="Q654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -39546,6 +40204,7 @@
       <c r="P655" t="n">
         <v>2014</v>
       </c>
+      <c r="Q655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -39606,6 +40265,7 @@
       <c r="P656" t="n">
         <v>2013</v>
       </c>
+      <c r="Q656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -39666,6 +40326,7 @@
       <c r="P657" t="n">
         <v>2014</v>
       </c>
+      <c r="Q657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -39726,6 +40387,7 @@
       <c r="P658" t="n">
         <v>2014</v>
       </c>
+      <c r="Q658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -39786,6 +40448,7 @@
       <c r="P659" t="n">
         <v>2013</v>
       </c>
+      <c r="Q659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -39846,6 +40509,7 @@
       <c r="P660" t="n">
         <v>2014</v>
       </c>
+      <c r="Q660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -39906,6 +40570,7 @@
       <c r="P661" t="n">
         <v>2014</v>
       </c>
+      <c r="Q661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -39966,6 +40631,7 @@
       <c r="P662" t="n">
         <v>2014</v>
       </c>
+      <c r="Q662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -40026,6 +40692,7 @@
       <c r="P663" t="n">
         <v>2013</v>
       </c>
+      <c r="Q663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -40086,6 +40753,7 @@
       <c r="P664" t="n">
         <v>2014</v>
       </c>
+      <c r="Q664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -40146,6 +40814,7 @@
       <c r="P665" t="n">
         <v>2014</v>
       </c>
+      <c r="Q665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -40206,6 +40875,7 @@
       <c r="P666" t="n">
         <v>2013</v>
       </c>
+      <c r="Q666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -40266,6 +40936,7 @@
       <c r="P667" t="n">
         <v>2013</v>
       </c>
+      <c r="Q667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -40326,6 +40997,7 @@
       <c r="P668" t="n">
         <v>2014</v>
       </c>
+      <c r="Q668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -40386,6 +41058,7 @@
       <c r="P669" t="n">
         <v>2014</v>
       </c>
+      <c r="Q669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -40446,6 +41119,7 @@
       <c r="P670" t="n">
         <v>2014</v>
       </c>
+      <c r="Q670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -40506,6 +41180,7 @@
       <c r="P671" t="n">
         <v>2014</v>
       </c>
+      <c r="Q671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -40566,6 +41241,7 @@
       <c r="P672" t="n">
         <v>2014</v>
       </c>
+      <c r="Q672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -40626,6 +41302,7 @@
       <c r="P673" t="n">
         <v>2014</v>
       </c>
+      <c r="Q673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -40686,6 +41363,7 @@
       <c r="P674" t="n">
         <v>2014</v>
       </c>
+      <c r="Q674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -40746,6 +41424,7 @@
       <c r="P675" t="n">
         <v>2014</v>
       </c>
+      <c r="Q675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -40806,6 +41485,7 @@
       <c r="P676" t="n">
         <v>2014</v>
       </c>
+      <c r="Q676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -40866,6 +41546,7 @@
       <c r="P677" t="n">
         <v>2013</v>
       </c>
+      <c r="Q677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -40926,6 +41607,7 @@
       <c r="P678" t="n">
         <v>2014</v>
       </c>
+      <c r="Q678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -40986,6 +41668,7 @@
       <c r="P679" t="n">
         <v>2014</v>
       </c>
+      <c r="Q679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -41046,6 +41729,7 @@
       <c r="P680" t="n">
         <v>2013</v>
       </c>
+      <c r="Q680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -41106,6 +41790,7 @@
       <c r="P681" t="n">
         <v>2013</v>
       </c>
+      <c r="Q681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -41166,6 +41851,7 @@
       <c r="P682" t="n">
         <v>2014</v>
       </c>
+      <c r="Q682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -41226,6 +41912,7 @@
       <c r="P683" t="n">
         <v>2014</v>
       </c>
+      <c r="Q683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -41286,6 +41973,7 @@
       <c r="P684" t="n">
         <v>2014</v>
       </c>
+      <c r="Q684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -41346,6 +42034,7 @@
       <c r="P685" t="n">
         <v>2014</v>
       </c>
+      <c r="Q685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -41406,6 +42095,7 @@
       <c r="P686" t="n">
         <v>2014</v>
       </c>
+      <c r="Q686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -41466,6 +42156,7 @@
       <c r="P687" t="n">
         <v>2013</v>
       </c>
+      <c r="Q687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -41526,6 +42217,7 @@
       <c r="P688" t="n">
         <v>2013</v>
       </c>
+      <c r="Q688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -41586,6 +42278,7 @@
       <c r="P689" t="n">
         <v>2014</v>
       </c>
+      <c r="Q689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -41646,6 +42339,7 @@
       <c r="P690" t="n">
         <v>2014</v>
       </c>
+      <c r="Q690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -41706,6 +42400,7 @@
       <c r="P691" t="n">
         <v>2014</v>
       </c>
+      <c r="Q691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -41766,6 +42461,7 @@
       <c r="P692" t="n">
         <v>2013</v>
       </c>
+      <c r="Q692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -41826,6 +42522,7 @@
       <c r="P693" t="n">
         <v>2014</v>
       </c>
+      <c r="Q693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -41886,6 +42583,7 @@
       <c r="P694" t="n">
         <v>2013</v>
       </c>
+      <c r="Q694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -41946,6 +42644,7 @@
       <c r="P695" t="n">
         <v>2014</v>
       </c>
+      <c r="Q695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -42006,6 +42705,7 @@
       <c r="P696" t="n">
         <v>2014</v>
       </c>
+      <c r="Q696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -42066,6 +42766,7 @@
       <c r="P697" t="n">
         <v>2014</v>
       </c>
+      <c r="Q697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -42126,6 +42827,7 @@
       <c r="P698" t="n">
         <v>2014</v>
       </c>
+      <c r="Q698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -42186,6 +42888,7 @@
       <c r="P699" t="n">
         <v>2014</v>
       </c>
+      <c r="Q699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -42246,6 +42949,7 @@
       <c r="P700" t="n">
         <v>2014</v>
       </c>
+      <c r="Q700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -42306,13 +43010,10 @@
       <c r="P701" t="n">
         <v>2014</v>
       </c>
+      <c r="Q701" t="inlineStr"/>
     </row>
     <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A702" t="inlineStr"/>
       <c r="B702" t="inlineStr"/>
       <c r="C702" t="inlineStr"/>
       <c r="D702" t="inlineStr"/>
@@ -42348,6 +43049,11 @@
       <c r="P702" t="n">
         <v>1409625</v>
       </c>
+      <c r="Q702" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
